--- a/model/跨境电子进口保税清单模板.xlsx
+++ b/model/跨境电子进口保税清单模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,18 +203,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>order20190505123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>order20190505124</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>order20190505125</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>logistics20190505123</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -288,6 +276,18 @@
   </si>
   <si>
     <t>匹</t>
+  </si>
+  <si>
+    <t>order201905301621</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order201905301622</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order201905301623</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -823,10 +823,10 @@
       <c r="O1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="R1" s="7" t="s">
@@ -874,22 +874,22 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="G2" s="5">
         <v>9007</v>
@@ -913,7 +913,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>48</v>
@@ -928,28 +928,28 @@
         <v>27</v>
       </c>
       <c r="S2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
@@ -957,28 +957,28 @@
         <v>30</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE2" s="5"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="E3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="G3" s="5">
         <v>9007</v>
@@ -1002,7 +1002,7 @@
         <v>24</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>48</v>
@@ -1013,28 +1013,28 @@
         <v>28</v>
       </c>
       <c r="S3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="V3" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
@@ -1042,28 +1042,28 @@
         <v>31</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE3" s="5"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="G4" s="5">
         <v>9007</v>
@@ -1087,7 +1087,7 @@
         <v>24</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>48</v>
@@ -1098,28 +1098,28 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="U4" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="V4" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
@@ -1127,7 +1127,7 @@
         <v>32</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE4" s="5"/>
     </row>
